--- a/resources/SAS test.xlsx
+++ b/resources/SAS test.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jonty/projects/Finance/bond-calculator/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jonty/projects/Finance/bond-calculator/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC1A2D50-F6E8-814B-9545-8B0C595C1593}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{914B7E53-1913-CC4B-9AB7-6C08C3AA9E4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18820" activeTab="1" xr2:uid="{A9929AB1-C006-EC48-9772-E431D1BA52C8}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
   <si>
     <t>Amount</t>
   </si>
@@ -115,6 +115,15 @@
   </si>
   <si>
     <t>Total to repay</t>
+  </si>
+  <si>
+    <t>repayment</t>
+  </si>
+  <si>
+    <t>remaining</t>
+  </si>
+  <si>
+    <t>term</t>
   </si>
 </sst>
 </file>
@@ -183,7 +192,19 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Per cent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="14">
+    <dxf>
+      <numFmt numFmtId="166" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="166" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
     </dxf>
@@ -294,7 +315,7 @@
   <autoFilter ref="A1:C2" xr:uid="{0FD1CAED-B75A-514E-A283-6EA601CE5C3A}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{E1B8815E-9D86-B546-B2BB-C46A38CF3AF8}" name="Amount" dataCellStyle="Currency"/>
-    <tableColumn id="2" xr3:uid="{D176A60A-D9F5-EA47-83D1-DA32EF23FA18}" name="Coupon Rate" dataDxfId="9" dataCellStyle="Per cent"/>
+    <tableColumn id="2" xr3:uid="{D176A60A-D9F5-EA47-83D1-DA32EF23FA18}" name="Coupon Rate" dataDxfId="13" dataCellStyle="Per cent"/>
     <tableColumn id="3" xr3:uid="{0E6607CB-E985-5441-826B-E16538A24534}" name="Term (years)"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -306,7 +327,7 @@
   <autoFilter ref="G1:H5" xr:uid="{4AC2074C-109C-A848-8990-129C122D443F}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{A819BA53-90E9-7844-A5AF-B29612F931E0}" name="T"/>
-    <tableColumn id="2" xr3:uid="{49A076FC-D787-1749-8C79-747025603FB7}" name="Spot Rate" dataDxfId="8" dataCellStyle="Per cent"/>
+    <tableColumn id="2" xr3:uid="{49A076FC-D787-1749-8C79-747025603FB7}" name="Spot Rate" dataDxfId="12" dataCellStyle="Per cent"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -338,14 +359,14 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{19470BE7-AE79-C04B-A91A-C3C0DFDEC679}" name="Table7" displayName="Table7" ref="A1:F2" totalsRowShown="0">
   <autoFilter ref="A1:F2" xr:uid="{19470BE7-AE79-C04B-A91A-C3C0DFDEC679}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{399432AD-4521-8A46-9232-83B89EA9B45B}" name="Loan Amount" dataDxfId="7" dataCellStyle="Currency"/>
-    <tableColumn id="2" xr3:uid="{E4C09BE6-8014-F842-84FE-9122F74A1114}" name="interest Rate" dataDxfId="6" dataCellStyle="Per cent"/>
+    <tableColumn id="1" xr3:uid="{399432AD-4521-8A46-9232-83B89EA9B45B}" name="Loan Amount" dataDxfId="11" dataCellStyle="Currency"/>
+    <tableColumn id="2" xr3:uid="{E4C09BE6-8014-F842-84FE-9122F74A1114}" name="interest Rate" dataDxfId="10" dataCellStyle="Per cent"/>
     <tableColumn id="3" xr3:uid="{840C7BF6-3422-8D45-A0A3-470B1A838007}" name="term (years)"/>
     <tableColumn id="4" xr3:uid="{67C3E3A9-557C-FD44-BACB-8D65F8681C6D}" name="Payments per year"/>
-    <tableColumn id="5" xr3:uid="{BFDDE116-7F59-7D42-9938-C87D9509013C}" name="Regular Payment" dataDxfId="5">
+    <tableColumn id="5" xr3:uid="{BFDDE116-7F59-7D42-9938-C87D9509013C}" name="Regular Payment" dataDxfId="9">
       <calculatedColumnFormula>A2*(0.06*(1 + 0.06)^C2)/((1 + 0.06)^C2-1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{276E4AEA-3197-C34A-BA00-003FA10066ED}" name="Total to repay" dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{276E4AEA-3197-C34A-BA00-003FA10066ED}" name="Total to repay" dataDxfId="8">
       <calculatedColumnFormula>E2*C2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -357,17 +378,31 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{F191B081-8F15-0B4C-843C-0569BD583234}" name="Table8" displayName="Table8" ref="H1:L11" totalsRowShown="0">
   <autoFilter ref="H1:L11" xr:uid="{F191B081-8F15-0B4C-843C-0569BD583234}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{4F3C8E90-B206-AD47-9131-0B85AC55674F}" name="Value" dataDxfId="3">
+    <tableColumn id="1" xr3:uid="{4F3C8E90-B206-AD47-9131-0B85AC55674F}" name="Value" dataDxfId="7">
       <calculatedColumnFormula>H1+I1-K1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{608B2EAF-0E1C-804A-A037-A74D9C185B02}" name="Interest added" dataDxfId="2">
+    <tableColumn id="2" xr3:uid="{608B2EAF-0E1C-804A-A037-A74D9C185B02}" name="Interest added" dataDxfId="6">
       <calculatedColumnFormula>H2*0.06</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{69484A7B-2909-214F-B2E3-5FABBF822205}" name="Term"/>
-    <tableColumn id="4" xr3:uid="{AE182752-B85B-FA4E-A90B-A5FCC2E4B50C}" name="To pay" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{782E2B87-A696-FA4B-B363-CB0B6A6265AC}" name="remaining (eoy)" dataDxfId="0">
+    <tableColumn id="4" xr3:uid="{AE182752-B85B-FA4E-A90B-A5FCC2E4B50C}" name="To pay" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{782E2B87-A696-FA4B-B363-CB0B6A6265AC}" name="remaining (eoy)" dataDxfId="4">
       <calculatedColumnFormula>H2+I2-K2</calculatedColumnFormula>
     </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{543B0A36-A2F6-D547-A2B3-2710BBC76960}" name="Table5" displayName="Table5" ref="O1:S7" totalsRowShown="0">
+  <autoFilter ref="O1:S7" xr:uid="{543B0A36-A2F6-D547-A2B3-2710BBC76960}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{15BC2723-93B1-1141-94E1-EF1C5DAD39C3}" name="Value" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{663494FB-6A22-AA46-8F7F-2278EB9E6055}" name="Interest added" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{7CF057E9-1FA4-4746-B447-0786AECCCC34}" name="term"/>
+    <tableColumn id="4" xr3:uid="{336B3C7A-EA93-9B43-8BD5-50AE99A005BC}" name="repayment" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{330A7E37-4098-684E-B42C-9F1D2B41742D}" name="remaining" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -840,10 +875,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB24FD05-3DD2-124B-B822-E9B14185C242}">
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:S12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -859,9 +894,13 @@
     <col min="9" max="9" width="15.33203125" customWidth="1"/>
     <col min="12" max="12" width="16.5" customWidth="1"/>
     <col min="15" max="15" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.33203125" customWidth="1"/>
+    <col min="17" max="17" width="13" customWidth="1"/>
+    <col min="18" max="18" width="12.33203125" customWidth="1"/>
+    <col min="19" max="19" width="11.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -895,8 +934,23 @@
       <c r="L1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="O1" t="s">
+        <v>7</v>
+      </c>
+      <c r="P1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>21</v>
+      </c>
+      <c r="R1" t="s">
+        <v>19</v>
+      </c>
+      <c r="S1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" s="6">
         <v>10000</v>
       </c>
@@ -933,14 +987,31 @@
         <f>H2+I2-K2</f>
         <v>9241.32</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="O2" s="7">
+        <f>H7</f>
+        <v>5723.2503131071971</v>
+      </c>
+      <c r="P2" s="7">
+        <v>14.31</v>
+      </c>
+      <c r="Q2">
+        <v>6</v>
+      </c>
+      <c r="R2">
+        <v>2000</v>
+      </c>
+      <c r="S2" s="7">
+        <f>O2+P2-R2</f>
+        <v>3737.5603131071975</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="H3" s="9">
-        <f>H2+I2-K2</f>
+        <f t="shared" ref="H3:H11" si="0">H2+I2-K2</f>
         <v>9241.32</v>
       </c>
       <c r="I3" s="9">
-        <f>H3*0.06</f>
+        <f t="shared" ref="I3:I11" si="1">H3*0.06</f>
         <v>554.47919999999999</v>
       </c>
       <c r="J3">
@@ -950,18 +1021,36 @@
         <v>1358.68</v>
       </c>
       <c r="L3" s="7">
-        <f t="shared" ref="L3:L11" si="0">H3+I3-K3</f>
+        <f t="shared" ref="L3:L11" si="2">H3+I3-K3</f>
         <v>8437.1191999999992</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="O3" s="7">
+        <f>S2</f>
+        <v>3737.5603131071975</v>
+      </c>
+      <c r="P3" s="7" cm="1">
+        <f t="array" ref="P3">O3*Table7[interest Rate]</f>
+        <v>224.25361878643184</v>
+      </c>
+      <c r="Q3">
+        <v>7</v>
+      </c>
+      <c r="R3" s="7">
+        <v>1078.6300000000001</v>
+      </c>
+      <c r="S3" s="7">
+        <f>O3+P3-R3</f>
+        <v>2883.1839318936291</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="G4" s="7"/>
       <c r="H4" s="9">
-        <f>H3+I3-K3</f>
+        <f t="shared" si="0"/>
         <v>8437.1191999999992</v>
       </c>
       <c r="I4" s="9">
-        <f>H4*0.06</f>
+        <f t="shared" si="1"/>
         <v>506.22715199999993</v>
       </c>
       <c r="J4">
@@ -971,17 +1060,35 @@
         <v>1358.68</v>
       </c>
       <c r="L4" s="7">
+        <f t="shared" si="2"/>
+        <v>7584.6663519999984</v>
+      </c>
+      <c r="O4" s="7">
+        <f>S3</f>
+        <v>2883.1839318936291</v>
+      </c>
+      <c r="P4" s="7" cm="1">
+        <f t="array" ref="P4">O4*Table7[interest Rate]</f>
+        <v>172.99103591361774</v>
+      </c>
+      <c r="Q4">
+        <v>8</v>
+      </c>
+      <c r="R4" s="7">
+        <v>1078.6300000000001</v>
+      </c>
+      <c r="S4" s="7">
+        <f>O4+P4-R4</f>
+        <v>1977.5449678072468</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="H5" s="9">
         <f t="shared" si="0"/>
         <v>7584.6663519999984</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="H5" s="9">
-        <f>H4+I4-K4</f>
-        <v>7584.6663519999984</v>
-      </c>
       <c r="I5" s="9">
-        <f>H5*0.06</f>
+        <f t="shared" si="1"/>
         <v>455.0799811199999</v>
       </c>
       <c r="J5">
@@ -991,17 +1098,35 @@
         <v>1358.68</v>
       </c>
       <c r="L5" s="7">
+        <f t="shared" si="2"/>
+        <v>6681.0663331199976</v>
+      </c>
+      <c r="O5" s="7">
+        <f>S4</f>
+        <v>1977.5449678072468</v>
+      </c>
+      <c r="P5" s="7" cm="1">
+        <f t="array" ref="P5">O5*Table7[interest Rate]</f>
+        <v>118.6526980684348</v>
+      </c>
+      <c r="Q5">
+        <v>9</v>
+      </c>
+      <c r="R5" s="7">
+        <v>1078.6300000000001</v>
+      </c>
+      <c r="S5" s="7">
+        <f>O5+P5-R5</f>
+        <v>1017.5676658756815</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="H6" s="9">
         <f t="shared" si="0"/>
         <v>6681.0663331199976</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="H6" s="9">
-        <f>H5+I5-K5</f>
-        <v>6681.0663331199976</v>
-      </c>
       <c r="I6" s="9">
-        <f>H6*0.06</f>
+        <f t="shared" si="1"/>
         <v>400.86397998719985</v>
       </c>
       <c r="J6">
@@ -1011,17 +1136,35 @@
         <v>1358.68</v>
       </c>
       <c r="L6" s="7">
+        <f t="shared" si="2"/>
+        <v>5723.2503131071971</v>
+      </c>
+      <c r="O6" s="7">
+        <f>S5</f>
+        <v>1017.5676658756815</v>
+      </c>
+      <c r="P6" s="7">
+        <f>O6*0.06</f>
+        <v>61.054059952540889</v>
+      </c>
+      <c r="Q6">
+        <v>10</v>
+      </c>
+      <c r="R6" s="7">
+        <v>1078.6300000000001</v>
+      </c>
+      <c r="S6" s="7">
+        <f>O6+P6-R6</f>
+        <v>-8.2741717776571022E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="H7" s="9">
         <f t="shared" si="0"/>
         <v>5723.2503131071971</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="H7" s="9">
-        <f>H6+I6-K6</f>
-        <v>5723.2503131071971</v>
-      </c>
       <c r="I7" s="9">
-        <f>H7*0.06</f>
+        <f t="shared" si="1"/>
         <v>343.39501878643182</v>
       </c>
       <c r="J7">
@@ -1031,17 +1174,17 @@
         <v>1358.68</v>
       </c>
       <c r="L7" s="7">
+        <f t="shared" si="2"/>
+        <v>4707.9653318936289</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="H8" s="9">
         <f t="shared" si="0"/>
         <v>4707.9653318936289</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="H8" s="9">
-        <f>H7+I7-K7</f>
-        <v>4707.9653318936289</v>
-      </c>
       <c r="I8" s="9">
-        <f>H8*0.06</f>
+        <f t="shared" si="1"/>
         <v>282.47791991361771</v>
       </c>
       <c r="J8">
@@ -1051,17 +1194,17 @@
         <v>1358.68</v>
       </c>
       <c r="L8" s="7">
+        <f t="shared" si="2"/>
+        <v>3631.763251807246</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="H9" s="9">
         <f t="shared" si="0"/>
         <v>3631.763251807246</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="H9" s="9">
-        <f>H8+I8-K8</f>
-        <v>3631.763251807246</v>
-      </c>
       <c r="I9" s="9">
-        <f>H9*0.06</f>
+        <f t="shared" si="1"/>
         <v>217.90579510843475</v>
       </c>
       <c r="J9">
@@ -1071,17 +1214,18 @@
         <v>1358.68</v>
       </c>
       <c r="L9" s="7">
+        <f t="shared" si="2"/>
+        <v>2490.9890469156808</v>
+      </c>
+      <c r="O9" s="7"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="H10" s="9">
         <f t="shared" si="0"/>
         <v>2490.9890469156808</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="H10" s="9">
-        <f>H9+I9-K9</f>
-        <v>2490.9890469156808</v>
-      </c>
       <c r="I10" s="9">
-        <f>H10*0.06</f>
+        <f t="shared" si="1"/>
         <v>149.45934281494084</v>
       </c>
       <c r="J10">
@@ -1091,17 +1235,17 @@
         <v>1358.68</v>
       </c>
       <c r="L10" s="7">
+        <f t="shared" si="2"/>
+        <v>1281.7683897306217</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="H11" s="9">
         <f t="shared" si="0"/>
         <v>1281.7683897306217</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="H11" s="9">
-        <f>H10+I10-K10</f>
-        <v>1281.7683897306217</v>
-      </c>
       <c r="I11" s="9">
-        <f>H11*0.06</f>
+        <f t="shared" si="1"/>
         <v>76.906103383837305</v>
       </c>
       <c r="J11">
@@ -1111,19 +1255,20 @@
         <v>1358.68</v>
       </c>
       <c r="L11" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-5.5068855410809192E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="K12" s="9"/>
       <c r="L12" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="2">
+  <tableParts count="3">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
--- a/resources/SAS test.xlsx
+++ b/resources/SAS test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jonty/projects/Finance/bond-calculator/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{914B7E53-1913-CC4B-9AB7-6C08C3AA9E4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CF65D90-A20D-4944-94D9-D054E0053BE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18820" activeTab="1" xr2:uid="{A9929AB1-C006-EC48-9772-E431D1BA52C8}"/>
   </bookViews>
@@ -395,8 +395,8 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{543B0A36-A2F6-D547-A2B3-2710BBC76960}" name="Table5" displayName="Table5" ref="O1:S7" totalsRowShown="0">
-  <autoFilter ref="O1:S7" xr:uid="{543B0A36-A2F6-D547-A2B3-2710BBC76960}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{543B0A36-A2F6-D547-A2B3-2710BBC76960}" name="Table5" displayName="Table5" ref="O1:S6" totalsRowShown="0">
+  <autoFilter ref="O1:S6" xr:uid="{543B0A36-A2F6-D547-A2B3-2710BBC76960}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{15BC2723-93B1-1141-94E1-EF1C5DAD39C3}" name="Value" dataDxfId="3"/>
     <tableColumn id="2" xr3:uid="{663494FB-6A22-AA46-8F7F-2278EB9E6055}" name="Interest added" dataDxfId="2"/>
@@ -878,7 +878,7 @@
   <dimension ref="A1:S12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+      <selection activeCell="S23" sqref="S23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1197,6 +1197,7 @@
         <f t="shared" si="2"/>
         <v>3631.763251807246</v>
       </c>
+      <c r="O8" s="7"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="H9" s="9">
@@ -1217,7 +1218,6 @@
         <f t="shared" si="2"/>
         <v>2490.9890469156808</v>
       </c>
-      <c r="O9" s="7"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="H10" s="9">
